--- a/ResEditor/Design/Stage/G_Wingman.xlsx
+++ b/ResEditor/Design/Stage/G_Wingman.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,30 +71,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,20 +458,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E1" sqref="E1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -508,11 +483,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -525,17 +497,8 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -548,24 +511,15 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" hidden="1"/>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="4" spans="1:4" hidden="1"/>
+    <row r="5" spans="1:4" hidden="1"/>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>10200001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -573,31 +527,19 @@
       <c r="D6">
         <v>10000</v>
       </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>10200002</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <v>11000</v>
-      </c>
-      <c r="F7">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ResEditor/Design/Stage/G_Wingman.xlsx
+++ b/ResEditor/Design/Stage/G_Wingman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7580" yWindow="8200" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>八云蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,19 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -483,8 +496,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,8 +513,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -511,10 +530,13 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" hidden="1"/>
-    <row r="5" spans="1:4" hidden="1"/>
-    <row r="6" spans="1:4">
+    <row r="4" spans="1:5" hidden="1"/>
+    <row r="5" spans="1:5" hidden="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>10200001</v>
       </c>
@@ -527,8 +549,11 @@
       <c r="D6">
         <v>10000</v>
       </c>
+      <c r="E6">
+        <v>10500001</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10200002</v>
       </c>

--- a/ResEditor/Design/Stage/G_Wingman.xlsx
+++ b/ResEditor/Design/Stage/G_Wingman.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="8200" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7575" yWindow="8205" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,26 +79,14 @@
   </si>
   <si>
     <t>八云蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -469,21 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -496,11 +483,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,11 +497,8 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -530,13 +511,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1"/>
-    <row r="5" spans="1:5" hidden="1"/>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="4" spans="1:4" hidden="1"/>
+    <row r="5" spans="1:4" hidden="1"/>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>10200001</v>
       </c>
@@ -549,11 +527,8 @@
       <c r="D6">
         <v>10000</v>
       </c>
-      <c r="E6">
-        <v>10500001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>10200002</v>
       </c>
@@ -579,14 +554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
